--- a/99-outline-smith.xlsx
+++ b/99-outline-smith.xlsx
@@ -638,9 +638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -706,7 +704,7 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C14" si="0">D3</f>
@@ -714,7 +712,7 @@
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D14" si="1">D3+B4</f>
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -725,11 +723,11 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
